--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3380.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3380.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.26629063684932</v>
+        <v>4.819045543670654</v>
       </c>
       <c r="B1">
-        <v>2.550095881326045</v>
+        <v>3.486467123031616</v>
       </c>
       <c r="C1">
-        <v>3.690384287272662</v>
+        <v>1.883810043334961</v>
       </c>
       <c r="D1">
-        <v>4.092493233987923</v>
+        <v>1.500928044319153</v>
       </c>
       <c r="E1">
-        <v>1.149768235803753</v>
+        <v>1.38044261932373</v>
       </c>
     </row>
   </sheetData>
